--- a/Docs/_Calcs/RMCalcs.xlsx
+++ b/Docs/_Calcs/RMCalcs.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="22995" windowHeight="9525"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="22995" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LDO" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Off-on cycle duration (mins):</t>
   </si>
@@ -43,13 +43,94 @@
   </si>
   <si>
     <t>Arduino doesn't even have memory for this :|</t>
+  </si>
+  <si>
+    <t>*** measurements ***</t>
+  </si>
+  <si>
+    <t>with usb attached + battery &amp; with transmit -&gt; current battery ~ 300ma, never higher than 400ma</t>
+  </si>
+  <si>
+    <t>with no usb attached + battery -&gt; current battery fluctuates a lot but 13-47ma is consumed WHEN ARDUINO IS OFF.</t>
+  </si>
+  <si>
+    <t>* (with linear regulator?) *</t>
+  </si>
+  <si>
+    <t>arduino power consumption with shield power on -&gt; constantly 500mA.</t>
+  </si>
+  <si>
+    <t>arduino power consumption with shield power off -&gt; 90-140mA as shield LEDs light on&amp;off.</t>
+  </si>
+  <si>
+    <t>* with ldo *</t>
+  </si>
+  <si>
+    <t>arduino power consumption with shield power off -&gt; ~50mA, roughly constant</t>
+  </si>
+  <si>
+    <t>arduino power consumption with shield power on -&gt; start quick peak @ 600mA, 70-140mA (even while transmitting)</t>
+  </si>
+  <si>
+    <t>* with ldo, but shutdown pin=1 *</t>
+  </si>
+  <si>
+    <t>arduino power consumption with shield power connected (jst-pin) -&gt; ~54mA constant</t>
+  </si>
+  <si>
+    <t>arduino power consumption with shield power disconnected (jst-pin) -&gt; ~53mA constant</t>
+  </si>
+  <si>
+    <t>arduino power consumption with ldo disconnected -&gt; ~52mA constant</t>
+  </si>
+  <si>
+    <t>when on, default analog-gnd=3 MOhm, analog-5v=0 Ohm</t>
+  </si>
+  <si>
+    <t>input_pullup, analog-gnd=0, analog-5v=1 MOhm,</t>
+  </si>
+  <si>
+    <t>when off, analog-5v=3.7 MOhm, analog-gnd=3.7 MOhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when off, 5V coming to A0 ping, 60mA constant use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@LDO Output: </t>
+  </si>
+  <si>
+    <t>330uF Alum cap + 3*100uF caps = 3/3 successess</t>
+  </si>
+  <si>
+    <t>330uF Alum cap + 2*100uF caps = 3/3 successess</t>
+  </si>
+  <si>
+    <t>330uF Alum cap + 1*100uF caps = 3/3 successess</t>
+  </si>
+  <si>
+    <t>330uF Alum cap + 0*100uF caps = 3/3 successess</t>
+  </si>
+  <si>
+    <t>*WAIT FOR 20 MINS*</t>
+  </si>
+  <si>
+    <t>1000uF Alum cap = 1/1 success</t>
+  </si>
+  <si>
+    <t>330uF Alum cap + 0*100uF caps = 0/2 successess</t>
+  </si>
+  <si>
+    <t>330uF Alum cap + 3*100uF caps = 0/3 successess</t>
+  </si>
+  <si>
+    <t>LDO Output-capacitor testing to ensure it provides enough constant 4V drop to SIM808 so a successful GPRS transmit can occur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +140,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,9 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -486,12 +577,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
